--- a/data/TX2024-corretto.xlsx
+++ b/data/TX2024-corretto.xlsx
@@ -1559,7 +1559,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>aUSDC</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">

--- a/data/TX2024-corretto.xlsx
+++ b/data/TX2024-corretto.xlsx
@@ -1646,7 +1646,7 @@
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>GMX</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
